--- a/biology/Botanique/Bowling_Green_(New_York)/Bowling_Green_(New_York).xlsx
+++ b/biology/Botanique/Bowling_Green_(New_York)/Bowling_Green_(New_York).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bowling Green est un petit jardin public du quartier de Lower Manhattan à New York, situé au pied de Broadway, près du site du quartier hollandais de La Nouvelle-Amsterdam. Construit en 1733, son nom vient du fait qu'il comportait à l'origine un boulingrin (bowling green). En forme de goutte d'eau, il est le parc public le plus ancien de New York, et il est encore à ce jour entouré par une barrière datant du XVIIIe siècle. Au nord du jardin se trouve la sculpture du taureau de Wall Street (Charging Bull).
 Le Bowling Green Fence and Park fait partie du Registre national des lieux historiques.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,7 +580,9 @@
           <t>Monuments voisins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(dans le sens des aiguilles d'une montre)
 Alexander Hamilton US Custom House au Sud
